--- a/sitetack/models/master_info.xlsx
+++ b/sitetack/models/master_info.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clair\Dropbox (MIT)\Raines_Lab_Folders\Writing\DeepLearning_PTM_labels_manuscript\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clair\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C9A238C-436F-4631-B7D9-D43500FAA7E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A35A5E3-43BC-42B6-82D1-CA62B55118A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7CAA3CC8-7797-42C2-9BDB-658489D778DE}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{7CAA3CC8-7797-42C2-9BDB-658489D778DE}"/>
   </bookViews>
   <sheets>
     <sheet name="PTMs" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="86">
   <si>
     <t>PTM</t>
   </si>
@@ -279,6 +279,21 @@
   </si>
   <si>
     <t>Hydroxylysine (K)</t>
+  </si>
+  <si>
+    <t>Acetylation (K)</t>
+  </si>
+  <si>
+    <t>Pyroglutamylation (Q)</t>
+  </si>
+  <si>
+    <t>Palmitoylation (C)</t>
+  </si>
+  <si>
+    <t>Hydroxylaiton (P)</t>
+  </si>
+  <si>
+    <t>Hydroxylation (K)</t>
   </si>
 </sst>
 </file>
@@ -760,21 +775,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF909DD6-E935-452C-AEB4-8540BC903DD6}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15:C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
-    <col min="5" max="5" width="35.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -794,7 +809,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>53</v>
       </c>
@@ -811,7 +826,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>53</v>
       </c>
@@ -828,7 +843,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>53</v>
       </c>
@@ -845,7 +860,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>53</v>
       </c>
@@ -862,7 +877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>53</v>
       </c>
@@ -879,7 +894,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>53</v>
       </c>
@@ -896,7 +911,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>53</v>
       </c>
@@ -904,7 +919,7 @@
         <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -913,7 +928,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>53</v>
       </c>
@@ -930,7 +945,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>53</v>
       </c>
@@ -947,7 +962,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>53</v>
       </c>
@@ -955,7 +970,7 @@
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E11" t="s">
         <v>38</v>
@@ -964,7 +979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>53</v>
       </c>
@@ -972,7 +987,7 @@
         <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
@@ -981,7 +996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>53</v>
       </c>
@@ -989,7 +1004,7 @@
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>48</v>
@@ -998,7 +1013,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>53</v>
       </c>
@@ -1006,7 +1021,7 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>48</v>
@@ -1015,7 +1030,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>53</v>
       </c>
@@ -1032,7 +1047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>53</v>
       </c>
@@ -1049,7 +1064,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>53</v>
       </c>
@@ -1066,7 +1081,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
@@ -1083,7 +1098,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>53</v>
       </c>
@@ -1100,7 +1115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>53</v>
       </c>
@@ -1117,7 +1132,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>53</v>
       </c>
@@ -1125,7 +1140,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E21" t="s">
         <v>38</v>
@@ -1134,7 +1149,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>53</v>
       </c>
@@ -1151,7 +1166,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>53</v>
       </c>
@@ -1168,7 +1183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>53</v>
       </c>
@@ -1176,7 +1191,7 @@
         <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="E24" t="s">
         <v>44</v>
@@ -1185,7 +1200,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>53</v>
       </c>
@@ -1193,7 +1208,7 @@
         <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="E25" t="s">
         <v>38</v>
@@ -1202,7 +1217,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>53</v>
       </c>
@@ -1210,7 +1225,7 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -1219,7 +1234,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>53</v>
       </c>
@@ -1227,7 +1242,7 @@
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>45</v>
@@ -1236,7 +1251,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>50</v>
       </c>
@@ -1253,7 +1268,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>50</v>
       </c>
@@ -1273,7 +1288,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>50</v>
       </c>
@@ -1293,7 +1308,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>50</v>
       </c>
@@ -1310,7 +1325,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>50</v>
       </c>
@@ -1330,7 +1345,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
@@ -1350,7 +1365,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>65</v>
       </c>
@@ -1370,7 +1385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>65</v>
       </c>
@@ -1390,7 +1405,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>54</v>
       </c>
@@ -1410,7 +1425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>54</v>
       </c>
@@ -1430,7 +1445,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>61</v>
       </c>
@@ -1447,7 +1462,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>61</v>
       </c>
@@ -1464,7 +1479,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>51</v>
       </c>
@@ -1510,18 +1525,18 @@
       <selection activeCell="C16" sqref="C16:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" customWidth="1"/>
-    <col min="22" max="22" width="6.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" customWidth="1"/>
+    <col min="22" max="22" width="6.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="14" t="s">
         <v>76</v>
       </c>
@@ -1529,7 +1544,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>52</v>
       </c>
@@ -1597,7 +1612,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
         <v>53</v>
       </c>
@@ -1662,7 +1677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>53</v>
       </c>
@@ -1727,7 +1742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>53</v>
       </c>
@@ -1792,7 +1807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
         <v>53</v>
       </c>
@@ -1857,7 +1872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>53</v>
       </c>
@@ -1922,7 +1937,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>53</v>
       </c>
@@ -1987,7 +2002,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
         <v>53</v>
       </c>
@@ -2052,7 +2067,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>53</v>
       </c>
@@ -2117,7 +2132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>53</v>
       </c>
@@ -2182,7 +2197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>53</v>
       </c>
@@ -2247,7 +2262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>53</v>
       </c>
@@ -2312,7 +2327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
         <v>53</v>
       </c>
@@ -2377,7 +2392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
         <v>53</v>
       </c>
@@ -2442,7 +2457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
         <v>53</v>
       </c>
@@ -2507,7 +2522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>53</v>
       </c>
@@ -2572,7 +2587,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:22" s="13" customFormat="1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
         <v>53</v>
       </c>
@@ -2637,7 +2652,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
         <v>53</v>
       </c>
@@ -2702,7 +2717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>53</v>
       </c>
@@ -2767,7 +2782,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
         <v>53</v>
       </c>
@@ -2832,7 +2847,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
         <v>53</v>
       </c>
@@ -2897,7 +2912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
         <v>53</v>
       </c>
@@ -2962,7 +2977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
         <v>53</v>
       </c>
@@ -3027,7 +3042,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>53</v>
       </c>
@@ -3093,7 +3108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
         <v>53</v>
       </c>
@@ -3158,7 +3173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
         <v>53</v>
       </c>
@@ -3223,7 +3238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
         <v>53</v>
       </c>
@@ -3288,7 +3303,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
         <v>50</v>
       </c>
@@ -3353,7 +3368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
         <v>50</v>
       </c>
@@ -3367,7 +3382,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>50</v>
       </c>
@@ -3381,7 +3396,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>50</v>
       </c>
@@ -3446,7 +3461,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
         <v>50</v>
       </c>
@@ -3514,7 +3529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>50</v>
       </c>
@@ -3582,7 +3597,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
         <v>65</v>
       </c>
@@ -3650,7 +3665,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
         <v>65</v>
       </c>
@@ -3718,7 +3733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
         <v>54</v>
       </c>
@@ -3786,7 +3801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
         <v>54</v>
       </c>
@@ -3854,7 +3869,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>61</v>
       </c>
@@ -3895,7 +3910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>61</v>
       </c>
@@ -3936,7 +3951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="7"/>
       <c r="B41" s="9"/>
     </row>
@@ -3953,35 +3968,35 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="2.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="2.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="2.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="2.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -3998,7 +4013,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>29</v>
       </c>
@@ -4051,7 +4066,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -4152,7 +4167,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4188,7 +4203,7 @@
       <c r="AF4" s="2"/>
       <c r="AG4" s="2"/>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4213,7 +4228,7 @@
       <c r="AF5" s="2"/>
       <c r="AG5" s="2"/>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4228,7 +4243,7 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4245,7 +4260,7 @@
       <c r="AF7" s="2"/>
       <c r="AG7" s="2"/>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4270,7 +4285,7 @@
       <c r="AF8" s="2"/>
       <c r="AG8" s="2"/>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4295,7 +4310,7 @@
       <c r="AF9" s="2"/>
       <c r="AG9" s="2"/>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4326,7 +4341,7 @@
       <c r="AF10" s="2"/>
       <c r="AG10" s="2"/>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4351,7 +4366,7 @@
       <c r="AF11" s="2"/>
       <c r="AG11" s="2"/>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4376,7 +4391,7 @@
       <c r="AF12" s="2"/>
       <c r="AG12" s="2"/>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4401,7 +4416,7 @@
       <c r="AF13" s="2"/>
       <c r="AG13" s="2"/>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4426,7 +4441,7 @@
       <c r="AF14" s="2"/>
       <c r="AG14" s="2"/>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -4451,7 +4466,7 @@
       <c r="AF15" s="2"/>
       <c r="AG15" s="2"/>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -4476,27 +4491,27 @@
       <c r="AF16" s="2"/>
       <c r="AG16" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>17</v>
       </c>

--- a/sitetack/models/master_info.xlsx
+++ b/sitetack/models/master_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clair\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A35A5E3-43BC-42B6-82D1-CA62B55118A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC17C65-7A2B-4626-AEBB-FB9294D7F1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{7CAA3CC8-7797-42C2-9BDB-658489D778DE}"/>
   </bookViews>
@@ -290,10 +290,10 @@
     <t>Palmitoylation (C)</t>
   </si>
   <si>
-    <t>Hydroxylaiton (P)</t>
-  </si>
-  <si>
     <t>Hydroxylation (K)</t>
+  </si>
+  <si>
+    <t>Hydroxylation (P)</t>
   </si>
 </sst>
 </file>
@@ -776,7 +776,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1004,7 +1004,7 @@
         <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>48</v>
@@ -1021,7 +1021,7 @@
         <v>56</v>
       </c>
       <c r="C14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>48</v>
@@ -1225,7 +1225,7 @@
         <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
         <v>36</v>
@@ -1242,7 +1242,7 @@
         <v>41</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E27" s="11" t="s">
         <v>45</v>

--- a/sitetack/models/master_info.xlsx
+++ b/sitetack/models/master_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clair\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC17C65-7A2B-4626-AEBB-FB9294D7F1FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18963A64-FF70-4641-B04A-D567B1BB64D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{7CAA3CC8-7797-42C2-9BDB-658489D778DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="88">
   <si>
     <t>PTM</t>
   </si>
@@ -294,6 +294,12 @@
   </si>
   <si>
     <t>Hydroxylation (P)</t>
+  </si>
+  <si>
+    <t>O-Linked glycosylation (S,T)</t>
+  </si>
+  <si>
+    <t>N-Linked glycosylation (N)</t>
   </si>
 </sst>
 </file>
@@ -776,7 +782,7 @@
   <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +857,7 @@
         <v>56</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
         <v>32</v>
@@ -868,7 +874,7 @@
         <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>49</v>
@@ -1072,7 +1078,7 @@
         <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="E17" t="s">
         <v>36</v>
@@ -1089,7 +1095,7 @@
         <v>41</v>
       </c>
       <c r="C18" t="s">
-        <v>4</v>
+        <v>86</v>
       </c>
       <c r="E18" t="s">
         <v>40</v>

--- a/sitetack/models/master_info.xlsx
+++ b/sitetack/models/master_info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Clair\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18963A64-FF70-4641-B04A-D567B1BB64D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69FAFAA7-B456-4011-98E2-4F1F138CCF2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15720" xr2:uid="{7CAA3CC8-7797-42C2-9BDB-658489D778DE}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="86">
   <si>
     <t>PTM</t>
   </si>
@@ -132,12 +132,6 @@
   </si>
   <si>
     <t>Alphabet no labels</t>
-  </si>
-  <si>
-    <t>ARNDCEQGHILKMFPSTWYVX-U</t>
-  </si>
-  <si>
-    <t>ARNDCEQGHILKMFPSTWYVXZ-U</t>
   </si>
   <si>
     <t>ARNDCEQGHILKMFPSTWYV-U</t>
@@ -439,7 +433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -464,6 +458,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -781,8 +776,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF909DD6-E935-452C-AEB4-8540BC903DD6}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,16 +792,16 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>30</v>
@@ -817,692 +812,692 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="E2" t="s">
-        <v>33</v>
+      <c r="E2" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
         <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
         <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" t="s">
         <v>41</v>
-      </c>
-      <c r="C24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-      <c r="F24" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
-        <v>33</v>
+      <c r="E28" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" t="s">
-        <v>33</v>
+        <v>55</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
       <c r="D30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E30" t="s">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>47</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>3</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s">
         <v>3</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>54</v>
-      </c>
-      <c r="B36" s="9" t="s">
-        <v>56</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
       </c>
       <c r="D36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F36" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
       <c r="D37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s">
         <v>4</v>
       </c>
       <c r="D38" t="s">
-        <v>64</v>
-      </c>
-      <c r="E38" t="s">
-        <v>33</v>
+        <v>62</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" t="s">
-        <v>33</v>
+        <v>61</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" t="s">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1517,9 +1512,17 @@
     <hyperlink ref="E6" r:id="rId8" xr:uid="{24D80723-DD84-4279-BE01-664373A3CFAB}"/>
     <hyperlink ref="E7" r:id="rId9" xr:uid="{EB91C91A-0DDD-46D8-A899-59F632D21DD4}"/>
     <hyperlink ref="E5" r:id="rId10" xr:uid="{D2E06988-5E59-415A-87BA-DEC131C5F240}"/>
+    <hyperlink ref="E2" r:id="rId11" xr:uid="{53F3E6AC-B357-4715-B851-8E6390061045}"/>
+    <hyperlink ref="E4" r:id="rId12" xr:uid="{EDE08174-54E3-4977-B545-0754D1CAA2A8}"/>
+    <hyperlink ref="E8" r:id="rId13" xr:uid="{112E08E2-DBFF-4C91-AD07-996FCB5FB44A}"/>
+    <hyperlink ref="E28" r:id="rId14" xr:uid="{4495B5F2-4BE0-48E1-A789-F7D04A111B04}"/>
+    <hyperlink ref="E29" r:id="rId15" xr:uid="{137160AB-A218-4D3F-9FD6-071FE5B31275}"/>
+    <hyperlink ref="E30" r:id="rId16" xr:uid="{327F8A7E-4913-44F7-AF0E-3013A2848865}"/>
+    <hyperlink ref="E38" r:id="rId17" xr:uid="{661EBF0C-9154-4D80-9E56-54D877BC700E}"/>
+    <hyperlink ref="E39" r:id="rId18" xr:uid="{9F7FE3BC-DE99-4F22-8D13-4302708F3AA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -1544,7 +1547,7 @@
   <sheetData>
     <row r="1" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E1" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="N1" s="14" t="s">
         <v>15</v>
@@ -1552,78 +1555,78 @@
     </row>
     <row r="2" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="H2" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="J2" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="K2" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="L2" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="M2" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="K2" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="L2" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="O2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="S2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="T2" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="U2" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="P2" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q2" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="R2" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" s="14" t="s">
+      <c r="V2" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="T2" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="U2" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="V2" s="14" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -1685,10 +1688,10 @@
     </row>
     <row r="4" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -1750,10 +1753,10 @@
     </row>
     <row r="5" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
@@ -1815,10 +1818,10 @@
     </row>
     <row r="6" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -1880,13 +1883,13 @@
     </row>
     <row r="7" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E7" s="13">
         <v>0.63399073891078916</v>
@@ -1945,10 +1948,10 @@
     </row>
     <row r="8" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
         <v>6</v>
@@ -2010,13 +2013,13 @@
     </row>
     <row r="9" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E9" s="13">
         <v>0.77210000000000001</v>
@@ -2075,10 +2078,10 @@
     </row>
     <row r="10" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -2140,10 +2143,10 @@
     </row>
     <row r="11" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -2205,10 +2208,10 @@
     </row>
     <row r="12" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
         <v>10</v>
@@ -2270,10 +2273,10 @@
     </row>
     <row r="13" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -2335,10 +2338,10 @@
     </row>
     <row r="14" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" t="s">
         <v>12</v>
@@ -2400,13 +2403,13 @@
     </row>
     <row r="15" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E15" s="13">
         <v>0.96809523809523823</v>
@@ -2465,10 +2468,10 @@
     </row>
     <row r="16" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -2530,10 +2533,10 @@
     </row>
     <row r="17" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -2595,10 +2598,10 @@
     </row>
     <row r="18" spans="1:22" s="13" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
         <v>3</v>
@@ -2660,10 +2663,10 @@
     </row>
     <row r="19" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
@@ -2725,13 +2728,13 @@
     </row>
     <row r="20" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E20" s="13">
         <v>0.935069757522349</v>
@@ -2790,10 +2793,10 @@
     </row>
     <row r="21" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>6</v>
@@ -2855,13 +2858,13 @@
     </row>
     <row r="22" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E22" s="13">
         <v>0.99532665143841759</v>
@@ -2920,10 +2923,10 @@
     </row>
     <row r="23" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -2985,10 +2988,10 @@
     </row>
     <row r="24" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -3050,10 +3053,10 @@
     </row>
     <row r="25" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
         <v>10</v>
@@ -3116,10 +3119,10 @@
     </row>
     <row r="26" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -3181,10 +3184,10 @@
     </row>
     <row r="27" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C27" t="s">
         <v>12</v>
@@ -3246,13 +3249,13 @@
     </row>
     <row r="28" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E28" s="13">
         <v>0.94612241251688312</v>
@@ -3311,10 +3314,10 @@
     </row>
     <row r="29" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>4</v>
@@ -3376,38 +3379,38 @@
     </row>
     <row r="30" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>4</v>
@@ -3469,16 +3472,16 @@
     </row>
     <row r="33" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E33" s="13">
         <v>0.85851941275892218</v>
@@ -3537,16 +3540,16 @@
     </row>
     <row r="34" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B34" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E34" s="13">
         <v>0.79917043734980109</v>
@@ -3605,16 +3608,16 @@
     </row>
     <row r="35" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B35" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E35" s="13">
         <v>0.65567368084384126</v>
@@ -3673,16 +3676,16 @@
     </row>
     <row r="36" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E36" s="13">
         <v>0.66984341319888729</v>
@@ -3741,16 +3744,16 @@
     </row>
     <row r="37" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="16" t="s">
         <v>54</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>56</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E37" s="13">
         <v>0.80994036842308348</v>
@@ -3809,16 +3812,16 @@
     </row>
     <row r="38" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E38" s="13">
         <v>0.76550686684184122</v>
@@ -3877,16 +3880,16 @@
     </row>
     <row r="39" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>4</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="N39" s="13">
         <v>0.81969999999999998</v>
@@ -3918,16 +3921,16 @@
     </row>
     <row r="40" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B40" s="16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>1</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N40" s="13">
         <v>0.88129999999999997</v>
@@ -4509,12 +4512,12 @@
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
